--- a/4.Analysis/Data/raw/day1/phase_007/invalid_day1_phase_007.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_007/invalid_day1_phase_007.xlsx
@@ -12,177 +12,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_IAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env_Q2_item4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ParticipantID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	767402290373201922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	童岚芬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-12-17 21:41:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时2分45秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直接访问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.237.133.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问题反馈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一切正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.我没有受到任何干扰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不知道	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.19</t>
+    <t xml:space="preserve">con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt_over10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt_les300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proportion</t>
   </si>
   <si>
     <t xml:space="preserve">phase_007_subj_14</t>
   </si>
   <si>
-    <t xml:space="preserve">	767506261507051521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	疯狂假期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-12-16 11:21:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时7分58秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.138.177.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">研究人的反应速度	</t>
+    <t xml:space="preserve">pentagon_match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trapezoid_match</t>
   </si>
   <si>
     <t xml:space="preserve">phase_007_subj_9</t>
@@ -566,205 +458,132 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>791.170212765957</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1152</v>
+      </c>
+      <c r="F2" t="n">
+        <v>446</v>
+      </c>
+      <c r="G2" t="n">
+        <v>161.713692134794</v>
+      </c>
+      <c r="H2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47</v>
+      </c>
+      <c r="J2" t="n">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
+      <c r="K2" t="n">
+        <v>0.583333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>456</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>796.418604651163</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F3" t="n">
+        <v>391</v>
+      </c>
+      <c r="G3" t="n">
+        <v>178.174370525877</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>640.791666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>978</v>
+      </c>
+      <c r="F4" t="n">
+        <v>464</v>
+      </c>
+      <c r="G4" t="n">
+        <v>127.649279874515</v>
+      </c>
+      <c r="H4" t="n">
         <v>48</v>
       </c>
-      <c r="Z3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>251</v>
-      </c>
+      <c r="I4" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
